--- a/SCBAA/2018/Region 3.xlsx
+++ b/SCBAA/2018/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050FF515-914F-4C9A-8A91-D2379A7D894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E08B39-E22C-4D29-B2A2-EBE5E6DC6584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="765" windowWidth="12060" windowHeight="12495" firstSheet="10" activeTab="13" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="9" activeTab="10" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Angeles" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -700,18 +707,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -815,6 +810,18 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1145,7 +1152,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,54 +1164,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1218,22 +1225,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1268,8 +1275,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="45">
-        <f>277098596.49+162010085.83</f>
+      <c r="E11" s="41">
         <v>439108682.32000005</v>
       </c>
     </row>
@@ -1280,7 +1286,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>554406113.47000003</v>
       </c>
     </row>
@@ -1291,7 +1297,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <v>17247090.719999999</v>
       </c>
     </row>
@@ -1303,7 +1309,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1010761886.5100001</v>
       </c>
     </row>
@@ -1323,7 +1328,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="43">
         <v>115319264.11</v>
       </c>
     </row>
@@ -1334,8 +1339,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="45">
-        <f>168986017.72+464619.3</f>
+      <c r="E17" s="41">
         <v>169450637.02000001</v>
       </c>
     </row>
@@ -1346,8 +1350,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="48">
-        <f>101450.29+3755.21</f>
+      <c r="E18" s="44">
         <v>105205.5</v>
       </c>
     </row>
@@ -1359,7 +1362,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>284875106.63</v>
       </c>
     </row>
@@ -1379,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="49">
+      <c r="E21" s="45">
         <v>861542989</v>
       </c>
     </row>
@@ -1390,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="50">
+      <c r="E22" s="46">
         <v>0</v>
       </c>
     </row>
@@ -1401,7 +1403,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="51"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1410,7 +1412,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="41">
         <v>15047695.33</v>
       </c>
     </row>
@@ -1421,7 +1423,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>6916693.7199999997</v>
       </c>
     </row>
@@ -1463,7 +1465,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>50965861.32</v>
       </c>
     </row>
@@ -1505,7 +1507,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>53167.51</v>
       </c>
     </row>
@@ -1538,7 +1540,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>180852000</v>
       </c>
     </row>
@@ -1550,7 +1552,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2411015400.0200005</v>
       </c>
     </row>
@@ -1595,7 +1596,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="49">
         <v>261476724.97</v>
       </c>
     </row>
@@ -1606,7 +1607,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="49">
         <v>284100883.00999999</v>
       </c>
     </row>
@@ -1617,7 +1618,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="44">
         <v>10853932.880000001</v>
       </c>
     </row>
@@ -1628,7 +1629,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -1637,7 +1638,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="49">
         <v>27755133.399999999</v>
       </c>
     </row>
@@ -1648,8 +1649,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="53">
-        <f>39806788.91+23636344.47</f>
+      <c r="E47" s="49">
         <v>63443133.379999995</v>
       </c>
     </row>
@@ -1660,8 +1660,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="48">
-        <f>1803742+9757105.59</f>
+      <c r="E48" s="44">
         <v>11560847.59</v>
       </c>
     </row>
@@ -1672,7 +1671,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -1681,7 +1680,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="49">
         <v>159393794.31</v>
       </c>
     </row>
@@ -1692,7 +1691,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="49">
         <v>185137554.55000001</v>
       </c>
     </row>
@@ -1703,7 +1702,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="44">
         <v>3633905</v>
       </c>
     </row>
@@ -1734,7 +1733,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="44">
         <v>2267263.16</v>
       </c>
     </row>
@@ -1776,7 +1775,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="44">
         <v>162279111.44999999</v>
       </c>
     </row>
@@ -1807,7 +1806,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="49">
         <v>14313610.609999999</v>
       </c>
     </row>
@@ -1818,7 +1817,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="49">
         <v>33917113.359999999</v>
       </c>
     </row>
@@ -1829,7 +1828,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="44">
         <v>1362723</v>
       </c>
     </row>
@@ -1840,7 +1839,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -1849,7 +1848,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="49">
         <v>92870887.680000007</v>
       </c>
     </row>
@@ -1860,7 +1859,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="49">
         <v>90016996.629999995</v>
       </c>
     </row>
@@ -1871,7 +1870,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="44">
         <v>2797257</v>
       </c>
     </row>
@@ -1933,7 +1932,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="51"/>
+      <c r="E74" s="47"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -1942,7 +1941,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="49">
         <v>200842000</v>
       </c>
     </row>
@@ -1953,7 +1952,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="44">
         <v>146646641.19</v>
       </c>
     </row>
@@ -1973,7 +1972,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E78" s="49">
         <v>13749715.890000001</v>
       </c>
     </row>
@@ -1984,7 +1983,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="44">
         <v>22769221.469999999</v>
       </c>
     </row>
@@ -2015,7 +2014,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="44">
         <v>91516133.540000007</v>
       </c>
     </row>
@@ -2026,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -2066,7 +2065,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="53">
+      <c r="E87" s="49">
         <v>6985156.5</v>
       </c>
     </row>
@@ -2077,7 +2076,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="48">
+      <c r="E88" s="44">
         <v>79400</v>
       </c>
     </row>
@@ -2097,7 +2096,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>14234331.75</v>
       </c>
     </row>
@@ -2108,7 +2107,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="53">
+      <c r="E91" s="49">
         <v>10811176.67</v>
       </c>
     </row>
@@ -2119,7 +2118,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="44">
         <v>198386</v>
       </c>
     </row>
@@ -2129,7 +2128,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1915013034.9899998</v>
       </c>
     </row>
@@ -2160,8 +2158,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="55">
-        <f>6508461.09+4669565</f>
+      <c r="E96" s="51">
         <v>11178026.09</v>
       </c>
       <c r="F96" s="10"/>
@@ -2187,8 +2184,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
-        <f>635000+72745609.85</f>
+      <c r="E98" s="50">
         <v>73380609.849999994</v>
       </c>
     </row>
@@ -2206,8 +2202,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
-        <f>17771502.2+3198000</f>
+      <c r="E100" s="51">
         <v>20969502.199999999</v>
       </c>
     </row>
@@ -2243,7 +2238,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>539925</v>
       </c>
     </row>
@@ -2279,7 +2274,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="55">
+      <c r="E108" s="51">
         <v>1682770</v>
       </c>
     </row>
@@ -2298,8 +2293,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="57">
-        <f>18799305.72+4943648.92+54592119.89</f>
+      <c r="E110" s="53">
         <v>78335074.530000001</v>
       </c>
     </row>
@@ -2308,7 +2302,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>186085907.67000002</v>
       </c>
     </row>
@@ -2320,7 +2313,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2101098942.6599998</v>
       </c>
     </row>
@@ -2355,54 +2347,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2416,22 +2408,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2466,7 +2458,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="78">
         <v>14230688.58</v>
       </c>
     </row>
@@ -2477,7 +2469,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="78">
         <v>26809195.559999999</v>
       </c>
     </row>
@@ -2488,7 +2480,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="78">
         <v>3553268.12</v>
       </c>
     </row>
@@ -2520,7 +2512,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="78">
         <v>7398816.4900000002</v>
       </c>
     </row>
@@ -2531,7 +2523,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="78">
         <v>18735376.699999999</v>
       </c>
     </row>
@@ -2542,7 +2534,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="78">
         <v>358719.94</v>
       </c>
     </row>
@@ -2574,7 +2566,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="82">
+      <c r="E21" s="78">
         <v>450814653</v>
       </c>
     </row>
@@ -2585,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="83">
+      <c r="E22" s="79">
         <v>1453197.7</v>
       </c>
     </row>
@@ -2596,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2605,7 +2597,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="75">
         <v>0</v>
       </c>
     </row>
@@ -2616,7 +2608,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2658,7 +2650,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="71">
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2661,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="71">
         <v>0</v>
       </c>
     </row>
@@ -2700,7 +2692,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2733,7 +2725,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="75">
+      <c r="E36" s="71">
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +2782,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="80">
         <v>95593578.450000003</v>
       </c>
     </row>
@@ -2801,7 +2793,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="80">
         <v>59592818.310000002</v>
       </c>
     </row>
@@ -2812,7 +2804,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="84">
+      <c r="E44" s="80">
         <v>9367657.3100000005</v>
       </c>
     </row>
@@ -2823,7 +2815,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="85"/>
+      <c r="E45" s="81"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -2832,7 +2824,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="85">
+      <c r="E46" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2835,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="85">
+      <c r="E47" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2846,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="85">
+      <c r="E48" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2874,7 +2866,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="84">
+      <c r="E50" s="80">
         <v>33320848.350000001</v>
       </c>
     </row>
@@ -2885,7 +2877,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="84">
+      <c r="E51" s="80">
         <v>3890194.53</v>
       </c>
     </row>
@@ -2896,7 +2888,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="80">
         <v>1972</v>
       </c>
     </row>
@@ -2907,7 +2899,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -2916,7 +2908,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="83">
+      <c r="E54" s="79">
         <v>926808</v>
       </c>
     </row>
@@ -2927,7 +2919,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="85">
+      <c r="E55" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +2930,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="85">
+      <c r="E56" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2961,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3000,7 +2992,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="83">
+      <c r="E62" s="79">
         <v>4524863.51</v>
       </c>
     </row>
@@ -3011,7 +3003,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="83">
+      <c r="E63" s="79">
         <v>7235590.8300000001</v>
       </c>
     </row>
@@ -3022,7 +3014,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3033,7 +3025,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="85"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -3042,7 +3034,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="83">
+      <c r="E66" s="79">
         <v>54576700.710000001</v>
       </c>
     </row>
@@ -3053,7 +3045,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="83">
+      <c r="E67" s="79">
         <v>14796027.75</v>
       </c>
     </row>
@@ -3064,7 +3056,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="83">
+      <c r="E68" s="79">
         <v>42500113.689999998</v>
       </c>
     </row>
@@ -3084,7 +3076,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3087,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3106,7 +3098,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3126,7 +3118,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -3135,7 +3127,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="83">
+      <c r="E75" s="79">
         <v>61691523.789999999</v>
       </c>
     </row>
@@ -3146,7 +3138,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="86">
+      <c r="E76" s="82">
         <v>0</v>
       </c>
     </row>
@@ -3166,7 +3158,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="85">
+      <c r="E78" s="81">
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3169,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="83">
+      <c r="E79" s="79">
         <v>27224732.649999999</v>
       </c>
     </row>
@@ -3188,7 +3180,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="85"/>
+      <c r="E80" s="81"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -3197,7 +3189,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="85">
+      <c r="E81" s="81">
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3200,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="83">
+      <c r="E82" s="79">
         <v>90867606.930000007</v>
       </c>
     </row>
@@ -3219,7 +3211,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -3228,7 +3220,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="83">
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3251,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="83">
+      <c r="E87" s="79">
         <v>5699525</v>
       </c>
     </row>
@@ -3270,7 +3262,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="81">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3282,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="83">
+      <c r="E90" s="79">
         <v>3621178.89</v>
       </c>
     </row>
@@ -3301,7 +3293,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="83">
+      <c r="E91" s="79">
         <v>19558178.969999999</v>
       </c>
     </row>
@@ -3312,7 +3304,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="79">
         <v>7855705</v>
       </c>
     </row>
@@ -3353,7 +3345,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="79">
         <v>15327789</v>
       </c>
       <c r="F96" s="10"/>
@@ -3379,7 +3371,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="56">
+      <c r="E98" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3389,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="83">
+      <c r="E100" s="79">
         <v>1845000</v>
       </c>
     </row>
@@ -3433,7 +3425,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3443,7 +3435,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -3469,7 +3461,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="83">
+      <c r="E108" s="79">
         <v>1984582.94</v>
       </c>
     </row>
@@ -3488,7 +3480,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="83">
+      <c r="E110" s="79">
         <v>15031570.789999999</v>
       </c>
     </row>
@@ -3530,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D12C9A-A654-4D6F-B0B3-B123F32F8CB2}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,54 +3535,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3604,22 +3596,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3654,7 +3646,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="84">
         <v>177407741.25</v>
       </c>
     </row>
@@ -3665,7 +3657,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="85">
         <v>0</v>
       </c>
     </row>
@@ -3676,7 +3668,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="85">
         <v>194058473.91</v>
       </c>
     </row>
@@ -3688,7 +3680,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>371466215.15999997</v>
       </c>
     </row>
@@ -3708,7 +3699,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="86">
         <v>30004868.829999998</v>
       </c>
     </row>
@@ -3719,7 +3710,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="86">
         <v>310442133.66000003</v>
       </c>
     </row>
@@ -3730,7 +3721,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="86">
         <v>82471528.900000006</v>
       </c>
     </row>
@@ -3742,7 +3733,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>422918531.38999999</v>
       </c>
     </row>
@@ -3762,7 +3752,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="91">
+      <c r="E21" s="87">
         <v>699856653</v>
       </c>
     </row>
@@ -3773,7 +3763,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="90">
+      <c r="E22" s="86">
         <v>5137026.8899999997</v>
       </c>
     </row>
@@ -3784,7 +3774,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -3793,7 +3783,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="86">
         <v>68707773.010000005</v>
       </c>
     </row>
@@ -3804,7 +3794,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="86">
         <v>14310.47</v>
       </c>
     </row>
@@ -3846,7 +3836,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="86">
         <v>21853.360000000001</v>
       </c>
     </row>
@@ -3857,7 +3847,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="90">
+      <c r="E30" s="86">
         <v>7000000</v>
       </c>
     </row>
@@ -3888,7 +3878,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -3921,7 +3911,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="75">
+      <c r="E36" s="71">
         <v>0</v>
       </c>
     </row>
@@ -3933,7 +3923,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1575122363.28</v>
       </c>
     </row>
@@ -3978,7 +3967,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="89">
+      <c r="E42" s="85">
         <v>217233640</v>
       </c>
     </row>
@@ -3989,7 +3978,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43" s="85">
         <v>205684224</v>
       </c>
     </row>
@@ -4000,7 +3989,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="85">
         <v>41931692</v>
       </c>
     </row>
@@ -4011,7 +4000,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="89"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -4020,7 +4009,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="90">
+      <c r="E46" s="86">
         <v>317000</v>
       </c>
     </row>
@@ -4031,7 +4020,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="90">
+      <c r="E47" s="86">
         <v>34267802.799999997</v>
       </c>
     </row>
@@ -4042,7 +4031,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48" s="86">
         <v>7224625.1299999999</v>
       </c>
     </row>
@@ -4062,7 +4051,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="89">
+      <c r="E50" s="85">
         <v>53079441</v>
       </c>
     </row>
@@ -4073,7 +4062,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51" s="85">
         <v>6185244</v>
       </c>
     </row>
@@ -4084,7 +4073,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="80">
         <v>0</v>
       </c>
     </row>
@@ -4095,7 +4084,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -4104,7 +4093,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="83">
+      <c r="E54" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4115,7 +4104,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="85">
+      <c r="E55" s="81">
         <v>0</v>
       </c>
     </row>
@@ -4126,7 +4115,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="85">
+      <c r="E56" s="81">
         <v>0</v>
       </c>
     </row>
@@ -4146,7 +4135,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="86">
         <v>34305308</v>
       </c>
     </row>
@@ -4157,7 +4146,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="90">
+      <c r="E59" s="86">
         <v>26312461</v>
       </c>
     </row>
@@ -4188,7 +4177,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="89">
+      <c r="E62" s="85">
         <v>17452930</v>
       </c>
     </row>
@@ -4199,7 +4188,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="89">
+      <c r="E63" s="85">
         <v>10943856.949999999</v>
       </c>
     </row>
@@ -4210,7 +4199,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4221,7 +4210,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="85"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -4230,7 +4219,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="89">
+      <c r="E66" s="85">
         <v>222335877.91</v>
       </c>
     </row>
@@ -4241,7 +4230,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67" s="85">
         <v>262656120.75</v>
       </c>
     </row>
@@ -4252,7 +4241,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="85">
         <v>12370854</v>
       </c>
     </row>
@@ -4272,7 +4261,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4283,7 +4272,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4294,7 +4283,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4314,7 +4303,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -4323,7 +4312,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="89">
+      <c r="E75" s="85">
         <v>109680774.36</v>
       </c>
     </row>
@@ -4334,7 +4323,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="92">
+      <c r="E76" s="88">
         <v>30772886.219999999</v>
       </c>
     </row>
@@ -4354,8 +4343,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="89">
-        <f>9631911+8856119</f>
+      <c r="E78" s="85">
         <v>18488030</v>
       </c>
     </row>
@@ -4366,7 +4354,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="89">
+      <c r="E79" s="85">
         <v>21440040</v>
       </c>
     </row>
@@ -4377,7 +4365,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="85"/>
+      <c r="E80" s="81"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -4386,7 +4374,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="93">
+      <c r="E81" s="89">
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4385,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="89">
+      <c r="E82" s="85">
         <v>121032800.84999999</v>
       </c>
     </row>
@@ -4408,7 +4396,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -4417,7 +4405,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="83">
         <v>0</v>
       </c>
     </row>
@@ -4448,7 +4436,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="93">
+      <c r="E87" s="89">
         <v>0</v>
       </c>
     </row>
@@ -4459,7 +4447,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="81">
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +4467,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="83">
+      <c r="E90" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4478,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="93">
+      <c r="E91" s="89">
         <v>23889272.25</v>
       </c>
     </row>
@@ -4501,7 +4489,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4511,7 +4499,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1477604881.2199998</v>
       </c>
     </row>
@@ -4542,7 +4529,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="79">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -4568,7 +4555,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="56">
+      <c r="E98" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4586,7 +4573,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="83">
+      <c r="E100" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4622,7 +4609,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4632,7 +4619,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -4658,7 +4645,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="83">
+      <c r="E108" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4677,7 +4664,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="83">
+      <c r="E110" s="79">
         <v>0</v>
       </c>
     </row>
@@ -4686,7 +4673,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +4684,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1477604881.2199998</v>
       </c>
     </row>
@@ -4732,54 +4717,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4793,22 +4778,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4843,7 +4828,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="90">
         <v>12544195.460000001</v>
       </c>
       <c r="F11" s="38"/>
@@ -4855,7 +4840,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="90">
         <v>4549040.4700000007</v>
       </c>
       <c r="F12" s="38"/>
@@ -4867,7 +4852,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="90">
         <v>594974.71</v>
       </c>
       <c r="F13" s="38"/>
@@ -4902,7 +4887,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="90">
         <v>3213989.0800000005</v>
       </c>
       <c r="F16" s="38"/>
@@ -4914,7 +4899,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="90">
         <v>3242262.14</v>
       </c>
       <c r="F17" s="38"/>
@@ -4926,7 +4911,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="90">
         <v>497167.8</v>
       </c>
       <c r="F18" s="38"/>
@@ -4961,7 +4946,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="94">
+      <c r="E21" s="90">
         <v>343349692</v>
       </c>
       <c r="F21" s="38"/>
@@ -4973,7 +4958,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="94">
+      <c r="E22" s="90">
         <v>421773.14</v>
       </c>
       <c r="F22" s="38"/>
@@ -4985,7 +4970,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4995,7 +4980,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="92">
         <v>0</v>
       </c>
       <c r="F24" s="38"/>
@@ -5007,7 +4992,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="92">
         <v>0</v>
       </c>
       <c r="F25" s="38"/>
@@ -5053,7 +5038,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="92">
         <v>0</v>
       </c>
       <c r="F29" s="38"/>
@@ -5065,7 +5050,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="92">
         <v>0</v>
       </c>
       <c r="F30" s="38"/>
@@ -5099,7 +5084,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="91">
         <v>0</v>
       </c>
       <c r="F33" s="38"/>
@@ -5123,7 +5108,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="93">
         <v>1922423.05</v>
       </c>
       <c r="F35" s="38"/>
@@ -5192,7 +5177,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="98">
+      <c r="E42" s="94">
         <v>85605031.310000002</v>
       </c>
     </row>
@@ -5203,7 +5188,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="94">
         <v>32639451.780000001</v>
       </c>
     </row>
@@ -5214,7 +5199,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="94">
         <v>3118204.0399999996</v>
       </c>
     </row>
@@ -5225,7 +5210,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="89"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5234,7 +5219,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="94">
         <v>3423473.13</v>
       </c>
     </row>
@@ -5245,7 +5230,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="94">
         <v>612018.66</v>
       </c>
     </row>
@@ -5256,7 +5241,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48" s="86">
         <v>0</v>
       </c>
     </row>
@@ -5276,7 +5261,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="94">
         <v>16675752.299999999</v>
       </c>
     </row>
@@ -5287,7 +5272,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="94">
         <v>4519012.8800000008</v>
       </c>
     </row>
@@ -5298,7 +5283,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="94">
         <v>303402</v>
       </c>
     </row>
@@ -5309,7 +5294,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5318,7 +5303,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="94">
         <v>520756.82</v>
       </c>
     </row>
@@ -5329,7 +5314,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E55" s="94">
         <v>260676.41</v>
       </c>
     </row>
@@ -5340,7 +5325,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="94">
         <v>90601.66</v>
       </c>
     </row>
@@ -5360,7 +5345,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="86">
         <v>0</v>
       </c>
     </row>
@@ -5371,7 +5356,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="90">
+      <c r="E59" s="86">
         <v>0</v>
       </c>
     </row>
@@ -5402,7 +5387,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="94">
         <v>8539756</v>
       </c>
     </row>
@@ -5413,7 +5398,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="98">
+      <c r="E63" s="94">
         <v>583085.75</v>
       </c>
     </row>
@@ -5424,7 +5409,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="94">
         <v>71944</v>
       </c>
     </row>
@@ -5435,7 +5420,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="99"/>
+      <c r="E65" s="95"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -5444,7 +5429,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="98">
+      <c r="E66" s="94">
         <v>27406432.669999994</v>
       </c>
     </row>
@@ -5455,7 +5440,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="98">
+      <c r="E67" s="94">
         <v>6193054.8600000003</v>
       </c>
     </row>
@@ -5466,7 +5451,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="98">
+      <c r="E68" s="94">
         <v>1564314.7</v>
       </c>
     </row>
@@ -5486,7 +5471,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -5497,7 +5482,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -5508,7 +5493,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -5528,7 +5513,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -5537,7 +5522,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="98">
+      <c r="E75" s="94">
         <v>98678.28</v>
       </c>
     </row>
@@ -5548,7 +5533,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="98">
+      <c r="E76" s="94">
         <v>2182958.92</v>
       </c>
     </row>
@@ -5559,7 +5544,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="99"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5568,7 +5553,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="94">
         <v>3675733.18</v>
       </c>
     </row>
@@ -5579,7 +5564,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="98">
+      <c r="E79" s="94">
         <v>5037218.2699999996</v>
       </c>
     </row>
@@ -5590,7 +5575,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="98"/>
+      <c r="E80" s="94"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -5599,7 +5584,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="94">
         <v>652970</v>
       </c>
     </row>
@@ -5610,7 +5595,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="98">
+      <c r="E82" s="94">
         <v>43218664.710000001</v>
       </c>
     </row>
@@ -5621,7 +5606,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -5630,7 +5615,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="83">
         <v>0</v>
       </c>
     </row>
@@ -5661,7 +5646,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="98">
+      <c r="E87" s="94">
         <v>4550000</v>
       </c>
     </row>
@@ -5672,7 +5657,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="85">
+      <c r="E88" s="81">
         <v>0</v>
       </c>
     </row>
@@ -5692,7 +5677,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="98">
+      <c r="E90" s="94">
         <v>4805386.1099999994</v>
       </c>
     </row>
@@ -5703,7 +5688,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="98">
+      <c r="E91" s="94">
         <v>54406719.57</v>
       </c>
     </row>
@@ -5714,7 +5699,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="79">
         <v>0</v>
       </c>
     </row>
@@ -5755,7 +5740,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="79">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -5781,7 +5766,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="98">
+      <c r="E98" s="94">
         <v>2228837.5099999998</v>
       </c>
     </row>
@@ -5799,7 +5784,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="100">
+      <c r="E100" s="96">
         <v>696019</v>
       </c>
     </row>
@@ -5835,7 +5820,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5845,7 +5830,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -5871,7 +5856,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="98">
+      <c r="E108" s="94">
         <v>17000</v>
       </c>
     </row>
@@ -5890,7 +5875,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="98">
+      <c r="E110" s="94">
         <v>42041506.880000003</v>
       </c>
     </row>
@@ -5932,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B06F35-A288-4703-9C32-D248C5679CBD}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5945,54 +5930,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6006,22 +5991,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6056,7 +6041,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="90">
         <v>30288793.52</v>
       </c>
       <c r="F11" s="38"/>
@@ -6068,7 +6053,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="90">
         <v>0</v>
       </c>
       <c r="F12" s="38"/>
@@ -6080,7 +6065,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="90">
         <v>76685504.019999996</v>
       </c>
       <c r="F13" s="38"/>
@@ -6093,7 +6078,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="39">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>106974297.53999999</v>
       </c>
       <c r="F14" s="38"/>
@@ -6115,7 +6099,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="90">
         <v>19935673.440000001</v>
       </c>
       <c r="F16" s="38"/>
@@ -6127,7 +6111,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="90">
         <v>0</v>
       </c>
       <c r="F17" s="38"/>
@@ -6139,8 +6123,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="94">
-        <f>40246453.04+16396769.62+466781.54</f>
+      <c r="E18" s="90">
         <v>57110004.199999996</v>
       </c>
       <c r="F18" s="38"/>
@@ -6153,7 +6136,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="39">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>77045677.640000001</v>
       </c>
       <c r="F19" s="38"/>
@@ -6175,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="94">
+      <c r="E21" s="90">
         <v>552363290</v>
       </c>
       <c r="F21" s="38"/>
@@ -6187,7 +6169,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="94">
+      <c r="E22" s="90">
         <v>1584896.19</v>
       </c>
       <c r="F22" s="38"/>
@@ -6199,7 +6181,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6209,7 +6191,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="92">
         <v>0</v>
       </c>
       <c r="F24" s="38"/>
@@ -6221,7 +6203,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="92">
         <v>0</v>
       </c>
       <c r="F25" s="38"/>
@@ -6267,7 +6249,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="92">
         <v>0</v>
       </c>
       <c r="F29" s="38"/>
@@ -6279,7 +6261,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="92">
         <v>61353639.960000001</v>
       </c>
       <c r="F30" s="38"/>
@@ -6313,7 +6295,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="91">
         <v>0</v>
       </c>
       <c r="F33" s="38"/>
@@ -6337,8 +6319,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="97">
-        <f>41537149.79</f>
+      <c r="E35" s="93">
         <v>41537149.789999999</v>
       </c>
       <c r="F35" s="38"/>
@@ -6362,7 +6343,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>840858951.12000012</v>
       </c>
     </row>
@@ -6407,7 +6387,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="98">
+      <c r="E42" s="94">
         <v>148317794.68000001</v>
       </c>
     </row>
@@ -6418,7 +6398,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="94">
         <v>65971517.130000003</v>
       </c>
     </row>
@@ -6429,7 +6409,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="94">
         <v>13204471.51</v>
       </c>
     </row>
@@ -6440,7 +6420,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="89"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -6449,7 +6429,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="94">
         <v>0</v>
       </c>
     </row>
@@ -6460,7 +6440,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="94">
         <v>0</v>
       </c>
     </row>
@@ -6471,7 +6451,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48" s="86">
         <v>0</v>
       </c>
     </row>
@@ -6491,7 +6471,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="94">
         <v>36077665.759999998</v>
       </c>
     </row>
@@ -6502,7 +6482,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="94">
         <v>12298123.35</v>
       </c>
     </row>
@@ -6513,7 +6493,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="94">
         <v>428655</v>
       </c>
     </row>
@@ -6524,7 +6504,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -6533,7 +6513,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="94">
         <v>2055992.9</v>
       </c>
     </row>
@@ -6544,7 +6524,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E55" s="94">
         <v>1306670.71</v>
       </c>
     </row>
@@ -6555,7 +6535,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="94">
         <v>118665</v>
       </c>
     </row>
@@ -6575,7 +6555,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="86">
         <v>0</v>
       </c>
     </row>
@@ -6586,7 +6566,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="90">
+      <c r="E59" s="86">
         <v>0</v>
       </c>
     </row>
@@ -6617,7 +6597,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="94">
         <v>11640389.029999999</v>
       </c>
     </row>
@@ -6628,7 +6608,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="98">
+      <c r="E63" s="94">
         <v>11343446.710000001</v>
       </c>
     </row>
@@ -6639,7 +6619,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="94">
         <v>811809</v>
       </c>
     </row>
@@ -6650,7 +6630,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="99"/>
+      <c r="E65" s="95"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -6659,7 +6639,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="98">
+      <c r="E66" s="94">
         <v>72081841.299999997</v>
       </c>
     </row>
@@ -6670,7 +6650,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="98">
+      <c r="E67" s="94">
         <v>57504560.409999996</v>
       </c>
     </row>
@@ -6681,7 +6661,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="98">
+      <c r="E68" s="94">
         <v>20387214.829999998</v>
       </c>
     </row>
@@ -6701,7 +6681,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -6712,7 +6692,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -6723,7 +6703,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -6743,7 +6723,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -6752,7 +6732,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="98">
+      <c r="E75" s="94">
         <v>28194526.609999999</v>
       </c>
     </row>
@@ -6763,7 +6743,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="98">
+      <c r="E76" s="94">
         <v>0</v>
       </c>
     </row>
@@ -6774,7 +6754,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="99"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -6783,7 +6763,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="94">
         <v>7611689.5</v>
       </c>
     </row>
@@ -6794,7 +6774,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="98">
+      <c r="E79" s="94">
         <v>7228970.8899999997</v>
       </c>
     </row>
@@ -6805,7 +6785,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="98"/>
+      <c r="E80" s="94"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -6814,7 +6794,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="94">
         <v>75360932.079999998</v>
       </c>
     </row>
@@ -6825,7 +6805,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="98">
+      <c r="E82" s="94">
         <v>20148969.23</v>
       </c>
     </row>
@@ -6836,7 +6816,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -6845,7 +6825,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="83">
         <v>0</v>
       </c>
     </row>
@@ -6876,7 +6856,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="98">
+      <c r="E87" s="94">
         <v>6170277.3899999997</v>
       </c>
     </row>
@@ -6887,8 +6867,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="85">
-        <f>277291.16+67575</f>
+      <c r="E88" s="81">
         <v>344866.16</v>
       </c>
     </row>
@@ -6908,7 +6887,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="98">
+      <c r="E90" s="94">
         <v>0</v>
       </c>
     </row>
@@ -6919,7 +6898,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="98">
+      <c r="E91" s="94">
         <v>123964951.20999999</v>
       </c>
     </row>
@@ -6930,7 +6909,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="79">
         <v>11742952.99</v>
       </c>
     </row>
@@ -6940,7 +6919,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>734316953.37999988</v>
       </c>
     </row>
@@ -6971,7 +6949,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="79">
         <v>1577305.4</v>
       </c>
       <c r="F96" s="10"/>
@@ -6997,7 +6975,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="98">
+      <c r="E98" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7015,7 +6993,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="100">
+      <c r="E100" s="96">
         <v>0</v>
       </c>
     </row>
@@ -7051,7 +7029,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -7061,7 +7039,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -7087,7 +7065,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="98">
+      <c r="E108" s="94">
         <v>8468885.6999999993</v>
       </c>
     </row>
@@ -7106,8 +7084,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="98">
-        <f>594700+25545338.35+6920</f>
+      <c r="E110" s="94">
         <v>26146958.350000001</v>
       </c>
     </row>
@@ -7116,7 +7093,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>36193149.450000003</v>
       </c>
     </row>
@@ -7128,7 +7104,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>770510102.82999992</v>
       </c>
     </row>
@@ -7149,8 +7124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15845EE2-B669-4A5E-80BD-387D7E5B1251}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F75" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,54 +7137,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7223,22 +7198,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7273,7 +7248,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="65">
         <v>142508373.45000002</v>
       </c>
       <c r="F11" s="38"/>
@@ -7285,7 +7260,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="65">
         <v>275577496.31</v>
       </c>
       <c r="F12" s="38"/>
@@ -7297,7 +7272,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="65">
         <v>47297857.140000001</v>
       </c>
       <c r="F13" s="38"/>
@@ -7310,7 +7285,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="39">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>465383726.89999998</v>
       </c>
       <c r="F14" s="38"/>
@@ -7332,7 +7306,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="65">
         <v>48050048.569999993</v>
       </c>
       <c r="F16" s="38"/>
@@ -7344,7 +7318,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="65">
         <v>17734452.93</v>
       </c>
       <c r="F17" s="38"/>
@@ -7356,7 +7330,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="90">
         <v>0</v>
       </c>
       <c r="F18" s="38"/>
@@ -7369,7 +7343,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="39">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>65784501.499999993</v>
       </c>
       <c r="F19" s="38"/>
@@ -7391,7 +7364,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="69">
+      <c r="E21" s="65">
         <v>918545588</v>
       </c>
       <c r="F21" s="38"/>
@@ -7403,7 +7376,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="94">
+      <c r="E22" s="90">
         <v>0</v>
       </c>
       <c r="F22" s="38"/>
@@ -7415,7 +7388,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -7425,7 +7398,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="65">
         <v>74360832.799999997</v>
       </c>
       <c r="F24" s="38"/>
@@ -7437,7 +7410,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="92">
         <v>0</v>
       </c>
       <c r="F25" s="38"/>
@@ -7449,7 +7422,7 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="65">
         <v>411490.94</v>
       </c>
       <c r="F26" s="38"/>
@@ -7483,7 +7456,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="92">
         <v>0</v>
       </c>
       <c r="F29" s="38"/>
@@ -7495,8 +7468,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="69">
-        <f>200000+4978225.11+3480021.1</f>
+      <c r="E30" s="65">
         <v>8658246.2100000009</v>
       </c>
       <c r="F30" s="38"/>
@@ -7530,7 +7502,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="91">
         <v>0</v>
       </c>
       <c r="F33" s="38"/>
@@ -7554,7 +7526,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="93">
         <v>0</v>
       </c>
       <c r="F35" s="38"/>
@@ -7578,7 +7550,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1533144386.3500001</v>
       </c>
     </row>
@@ -7623,7 +7594,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="65">
         <v>250580503.34</v>
       </c>
     </row>
@@ -7634,7 +7605,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="65">
         <v>485410418.07999998</v>
       </c>
     </row>
@@ -7645,7 +7616,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="65">
         <v>95607268.840000004</v>
       </c>
     </row>
@@ -7656,7 +7627,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="89"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -7665,7 +7636,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7676,7 +7647,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7687,7 +7658,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48" s="86">
         <v>0</v>
       </c>
     </row>
@@ -7707,7 +7678,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="65">
         <v>67018511.469999999</v>
       </c>
     </row>
@@ -7718,7 +7689,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="65">
         <v>766549.9</v>
       </c>
     </row>
@@ -7729,7 +7700,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="65">
         <v>0</v>
       </c>
     </row>
@@ -7740,7 +7711,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -7749,7 +7720,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7760,7 +7731,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E55" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7771,7 +7742,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7791,7 +7762,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="86">
         <v>0</v>
       </c>
     </row>
@@ -7802,7 +7773,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="65">
         <v>61645020.549999997</v>
       </c>
     </row>
@@ -7813,7 +7784,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="69">
+      <c r="E60" s="65">
         <v>130802449.01000001</v>
       </c>
     </row>
@@ -7833,7 +7804,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="69">
+      <c r="E62" s="65">
         <v>10247512.91</v>
       </c>
     </row>
@@ -7844,7 +7815,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="69">
+      <c r="E63" s="65">
         <v>7858150</v>
       </c>
     </row>
@@ -7855,7 +7826,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="65">
         <v>0</v>
       </c>
     </row>
@@ -7866,7 +7837,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="99"/>
+      <c r="E65" s="95"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -7875,7 +7846,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="101">
+      <c r="E66" s="97">
         <v>78503881.359999999</v>
       </c>
     </row>
@@ -7886,7 +7857,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="69">
+      <c r="E67" s="65">
         <v>84881166.140000001</v>
       </c>
     </row>
@@ -7897,7 +7868,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="65">
         <v>13105307.949999999</v>
       </c>
     </row>
@@ -7917,7 +7888,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -7928,7 +7899,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -7939,7 +7910,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -7959,7 +7930,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -7968,7 +7939,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="69">
+      <c r="E75" s="65">
         <v>27767209.309999999</v>
       </c>
     </row>
@@ -7979,7 +7950,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="98">
+      <c r="E76" s="94">
         <v>0</v>
       </c>
     </row>
@@ -7990,7 +7961,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="99"/>
+      <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -7999,7 +7970,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="69">
+      <c r="E78" s="65">
         <v>57786186.539999999</v>
       </c>
     </row>
@@ -8010,7 +7981,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="69">
+      <c r="E79" s="65">
         <v>10169132.84</v>
       </c>
     </row>
@@ -8021,7 +7992,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="98"/>
+      <c r="E80" s="94"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8030,7 +8001,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="98">
+      <c r="E81" s="94">
         <v>0</v>
       </c>
     </row>
@@ -8041,7 +8012,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="98">
+      <c r="E82" s="94">
         <v>0</v>
       </c>
     </row>
@@ -8052,7 +8023,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -8061,7 +8032,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="83">
         <v>0</v>
       </c>
     </row>
@@ -8092,7 +8063,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="69">
+      <c r="E87" s="65">
         <v>1767643</v>
       </c>
     </row>
@@ -8103,7 +8074,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="69">
+      <c r="E88" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8123,7 +8094,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="69">
+      <c r="E90" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8134,8 +8105,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="69">
-        <f>36311373.01+933601.62</f>
+      <c r="E91" s="65">
         <v>37244974.629999995</v>
       </c>
     </row>
@@ -8146,7 +8116,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8126,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1421161885.8699999</v>
       </c>
     </row>
@@ -8187,7 +8156,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="79">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -8213,7 +8182,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="98">
+      <c r="E98" s="94">
         <v>0</v>
       </c>
     </row>
@@ -8231,7 +8200,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="100">
+      <c r="E100" s="96">
         <v>0</v>
       </c>
     </row>
@@ -8267,7 +8236,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -8277,7 +8246,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -8303,7 +8272,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="98">
+      <c r="E108" s="94">
         <v>0</v>
       </c>
     </row>
@@ -8322,8 +8291,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="69">
-        <f>1403949+1238885.17</f>
+      <c r="E110" s="65">
         <v>2642834.17</v>
       </c>
     </row>
@@ -8332,7 +8300,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>2642834.17</v>
       </c>
     </row>
@@ -8344,7 +8311,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1423804720.04</v>
       </c>
     </row>
@@ -8366,7 +8332,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8378,54 +8344,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8439,22 +8405,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8489,7 +8455,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <v>51777897.789999999</v>
       </c>
     </row>
@@ -8500,7 +8466,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <v>100786291.7</v>
       </c>
     </row>
@@ -8511,8 +8477,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="58">
-        <f>3988163.28+5659553.55+3237022.45</f>
+      <c r="E13" s="54">
         <v>12884739.280000001</v>
       </c>
     </row>
@@ -8524,7 +8489,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>165448928.77000001</v>
       </c>
     </row>
@@ -8544,7 +8508,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <v>28283052.550000001</v>
       </c>
     </row>
@@ -8555,7 +8519,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>67582290.340000004</v>
       </c>
     </row>
@@ -8566,7 +8530,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="44">
         <v>0</v>
       </c>
     </row>
@@ -8578,7 +8542,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>95865342.890000001</v>
       </c>
     </row>
@@ -8598,7 +8561,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <v>431649121</v>
       </c>
     </row>
@@ -8609,7 +8572,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="50">
+      <c r="E22" s="46">
         <v>0</v>
       </c>
     </row>
@@ -8620,7 +8583,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -8640,7 +8603,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -8682,7 +8645,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8656,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="54">
         <v>1908752.52</v>
       </c>
     </row>
@@ -8724,7 +8687,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -8746,7 +8709,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="55">
         <v>12000</v>
       </c>
     </row>
@@ -8757,7 +8720,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -8769,7 +8732,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>694884145.18000007</v>
       </c>
     </row>
@@ -8805,7 +8767,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="60"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -8814,7 +8776,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="54">
         <v>123494557.73</v>
       </c>
     </row>
@@ -8825,7 +8787,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="54">
         <v>196240729.09</v>
       </c>
     </row>
@@ -8836,7 +8798,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="54">
         <v>67028215.369999997</v>
       </c>
     </row>
@@ -8847,7 +8809,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -8856,7 +8818,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="54">
         <v>790067.02</v>
       </c>
     </row>
@@ -8867,7 +8829,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="54">
         <v>220748.96</v>
       </c>
     </row>
@@ -8878,7 +8840,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="44">
         <v>0</v>
       </c>
     </row>
@@ -8889,7 +8851,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -8898,7 +8860,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="54">
         <v>28532372.960000001</v>
       </c>
     </row>
@@ -8909,7 +8871,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="54">
         <v>4482500.99</v>
       </c>
     </row>
@@ -8920,7 +8882,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="44">
         <v>0</v>
       </c>
     </row>
@@ -8940,7 +8902,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="54">
         <v>1200869.27</v>
       </c>
     </row>
@@ -8951,7 +8913,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>259358.93</v>
       </c>
     </row>
@@ -8993,7 +8955,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9024,7 +8986,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="54">
         <v>10904841.029999999</v>
       </c>
     </row>
@@ -9035,7 +8997,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="54">
         <v>1821616.86</v>
       </c>
     </row>
@@ -9046,7 +9008,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9057,7 +9019,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -9066,7 +9028,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="54">
         <v>26731984.420000002</v>
       </c>
     </row>
@@ -9077,7 +9039,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="54">
         <v>10366804.949999999</v>
       </c>
     </row>
@@ -9088,7 +9050,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9150,7 +9112,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -9159,7 +9121,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="47">
         <v>0</v>
       </c>
     </row>
@@ -9170,7 +9132,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9190,7 +9152,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="54">
         <v>14762092.619999999</v>
       </c>
     </row>
@@ -9201,8 +9163,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="58">
-        <f>14081862+3942768.03</f>
+      <c r="E79" s="54">
         <v>18024630.030000001</v>
       </c>
     </row>
@@ -9222,8 +9183,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="58">
-        <f>29830998+12574040</f>
+      <c r="E81" s="54">
         <v>42405038</v>
       </c>
     </row>
@@ -9234,8 +9194,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="58">
-        <f>38471310.54+1709186</f>
+      <c r="E82" s="54">
         <v>40180496.539999999</v>
       </c>
     </row>
@@ -9246,7 +9205,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -9286,7 +9245,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="54">
         <v>7680882.1100000003</v>
       </c>
     </row>
@@ -9297,7 +9256,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="48">
+      <c r="E88" s="44">
         <v>0</v>
       </c>
     </row>
@@ -9317,7 +9276,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="54">
         <v>0</v>
       </c>
     </row>
@@ -9328,7 +9287,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="58">
+      <c r="E91" s="54">
         <v>34326143.93</v>
       </c>
     </row>
@@ -9339,7 +9298,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="58">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
@@ -9349,7 +9308,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>629453950.80999982</v>
       </c>
     </row>
@@ -9380,7 +9338,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="51">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -9406,7 +9364,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -9424,7 +9382,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -9460,7 +9418,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -9496,7 +9454,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="55">
+      <c r="E108" s="51">
         <v>0</v>
       </c>
     </row>
@@ -9515,7 +9473,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="57">
+      <c r="E110" s="53">
         <v>0</v>
       </c>
     </row>
@@ -9524,7 +9482,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -9536,7 +9493,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>629453950.80999982</v>
       </c>
     </row>
@@ -9558,7 +9514,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,54 +9526,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -9631,22 +9587,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9681,7 +9637,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="57">
         <v>302368079.37</v>
       </c>
     </row>
@@ -9692,7 +9648,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="58">
         <v>270701097.26999998</v>
       </c>
     </row>
@@ -9703,7 +9659,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="58">
         <v>7442718.3600000003</v>
       </c>
     </row>
@@ -9715,7 +9671,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>580511895</v>
       </c>
     </row>
@@ -9735,7 +9690,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="58">
         <v>44375744.409999996</v>
       </c>
     </row>
@@ -9746,7 +9701,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="58">
         <v>43041355.170000002</v>
       </c>
     </row>
@@ -9757,7 +9712,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="58">
         <v>252942.5</v>
       </c>
     </row>
@@ -9769,7 +9724,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>87670042.079999998</v>
       </c>
     </row>
@@ -9789,7 +9743,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="62">
+      <c r="E21" s="58">
         <v>867112800</v>
       </c>
     </row>
@@ -9800,7 +9754,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="62">
+      <c r="E22" s="58">
         <v>4177320.06</v>
       </c>
     </row>
@@ -9811,7 +9765,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -9831,7 +9785,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -9873,7 +9827,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>0</v>
       </c>
     </row>
@@ -9884,7 +9838,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="54">
         <v>0</v>
       </c>
     </row>
@@ -9895,7 +9849,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="62">
+      <c r="E31" s="58">
         <v>82965424.590000004</v>
       </c>
     </row>
@@ -9915,7 +9869,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -9937,7 +9891,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="55">
         <v>0</v>
       </c>
     </row>
@@ -9948,7 +9902,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9960,7 +9914,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1622437481.7299998</v>
       </c>
     </row>
@@ -9996,7 +9949,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="60"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -10005,7 +9958,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="58">
         <v>221457987.50999999</v>
       </c>
     </row>
@@ -10016,7 +9969,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="58">
         <v>251093074.75999999</v>
       </c>
     </row>
@@ -10027,7 +9980,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="58">
         <v>235996315.5</v>
       </c>
     </row>
@@ -10038,7 +9991,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -10047,7 +10000,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="58">
         <v>1102178.06</v>
       </c>
     </row>
@@ -10058,8 +10011,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="62">
-        <f>44005551.23+10113080.8</f>
+      <c r="E47" s="58">
         <v>54118632.030000001</v>
       </c>
     </row>
@@ -10070,7 +10022,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="58">
         <v>125155500</v>
       </c>
     </row>
@@ -10081,7 +10033,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -10090,7 +10042,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="58">
         <v>115611800.31</v>
       </c>
     </row>
@@ -10101,7 +10053,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="58">
         <v>67398950.760000005</v>
       </c>
     </row>
@@ -10112,7 +10064,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="62">
+      <c r="E52" s="58">
         <v>1038504</v>
       </c>
     </row>
@@ -10132,7 +10084,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E54" s="59">
         <v>0</v>
       </c>
     </row>
@@ -10143,7 +10095,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="59">
         <v>0</v>
       </c>
     </row>
@@ -10185,7 +10137,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="49">
         <v>0</v>
       </c>
     </row>
@@ -10216,7 +10168,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="58">
         <v>13472565.77</v>
       </c>
     </row>
@@ -10227,7 +10179,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="58">
         <v>54021800.130000003</v>
       </c>
     </row>
@@ -10238,7 +10190,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="58">
         <v>5677827.1799999997</v>
       </c>
     </row>
@@ -10249,7 +10201,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -10258,7 +10210,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="58">
         <v>56139373.740000002</v>
       </c>
     </row>
@@ -10269,7 +10221,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="58">
         <v>116970626.20999999</v>
       </c>
     </row>
@@ -10280,7 +10232,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="58">
         <v>320207153.92000002</v>
       </c>
     </row>
@@ -10342,7 +10294,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -10351,7 +10303,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="58">
         <v>130392454.81999999</v>
       </c>
     </row>
@@ -10362,7 +10314,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="49">
         <v>0</v>
       </c>
     </row>
@@ -10382,7 +10334,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="62">
+      <c r="E78" s="58">
         <v>68164514.5</v>
       </c>
     </row>
@@ -10393,7 +10345,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="58">
         <v>5777922.7199999997</v>
       </c>
     </row>
@@ -10413,7 +10365,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="62">
+      <c r="E81" s="58">
         <v>0</v>
       </c>
     </row>
@@ -10424,7 +10376,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="58">
         <v>21679406.289999999</v>
       </c>
     </row>
@@ -10435,7 +10387,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -10475,7 +10427,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="62">
+      <c r="E87" s="58">
         <v>1932927.58</v>
       </c>
     </row>
@@ -10486,7 +10438,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="62">
+      <c r="E88" s="58">
         <v>56100</v>
       </c>
     </row>
@@ -10506,7 +10458,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="54">
         <v>0</v>
       </c>
     </row>
@@ -10517,7 +10469,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="62">
+      <c r="E91" s="58">
         <v>25897215.670000002</v>
       </c>
     </row>
@@ -10528,7 +10480,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="58">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
@@ -10538,7 +10490,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1893362831.46</v>
       </c>
     </row>
@@ -10569,7 +10520,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="62">
+      <c r="E96" s="58">
         <v>13134376.35</v>
       </c>
       <c r="F96" s="10"/>
@@ -10613,7 +10564,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="62">
+      <c r="E100" s="58">
         <v>3357964</v>
       </c>
     </row>
@@ -10649,7 +10600,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -10667,7 +10618,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="62">
+      <c r="E106" s="58">
         <v>1820230</v>
       </c>
     </row>
@@ -10685,7 +10636,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="62">
+      <c r="E108" s="58">
         <v>14098500</v>
       </c>
     </row>
@@ -10704,8 +10655,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="62">
-        <f>100684845.88+186320</f>
+      <c r="E110" s="58">
         <v>100871165.88</v>
       </c>
     </row>
@@ -10714,7 +10664,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>133282236.22999999</v>
       </c>
     </row>
@@ -10726,7 +10675,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2026645067.6900001</v>
       </c>
     </row>
@@ -10760,54 +10708,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10821,22 +10769,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10871,7 +10819,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <v>149612009.34</v>
       </c>
     </row>
@@ -10882,7 +10830,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <v>548508428.49000001</v>
       </c>
     </row>
@@ -10893,7 +10841,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="60">
         <v>21965311.199999999</v>
       </c>
     </row>
@@ -10925,7 +10873,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="60">
         <v>98200717.379999995</v>
       </c>
     </row>
@@ -10936,7 +10884,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="60">
         <v>43928164.770000003</v>
       </c>
     </row>
@@ -10947,7 +10895,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="60">
         <v>25341437.890000001</v>
       </c>
     </row>
@@ -10979,7 +10927,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="64">
+      <c r="E21" s="60">
         <v>705278759</v>
       </c>
     </row>
@@ -10990,7 +10938,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="62">
+      <c r="E22" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11001,7 +10949,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -11021,7 +10969,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="60">
         <v>439489.71</v>
       </c>
     </row>
@@ -11063,7 +11011,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11074,7 +11022,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="54">
         <v>0</v>
       </c>
     </row>
@@ -11085,7 +11033,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="62">
+      <c r="E31" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11105,7 +11053,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -11127,7 +11075,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="55">
         <v>0</v>
       </c>
     </row>
@@ -11138,7 +11086,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11186,7 +11134,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="60"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -11195,7 +11143,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="60">
         <v>209672681.47999999</v>
       </c>
     </row>
@@ -11206,7 +11154,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="60">
         <v>405288942.05000001</v>
       </c>
     </row>
@@ -11217,7 +11165,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="60">
         <v>129203322.38</v>
       </c>
     </row>
@@ -11228,7 +11176,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -11237,7 +11185,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="60">
         <v>6398598.8499999996</v>
       </c>
     </row>
@@ -11248,7 +11196,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="60">
         <v>95141738.640000015</v>
       </c>
     </row>
@@ -11259,7 +11207,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="60">
         <v>4805861.75</v>
       </c>
     </row>
@@ -11270,7 +11218,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -11279,7 +11227,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="60">
         <v>58591398.210000001</v>
       </c>
     </row>
@@ -11290,7 +11238,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="60">
         <v>59209352.030000001</v>
       </c>
     </row>
@@ -11301,7 +11249,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11321,7 +11269,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="65" t="s">
+      <c r="E54" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11332,7 +11280,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="60">
         <v>5528405.1699999999</v>
       </c>
     </row>
@@ -11343,7 +11291,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="65" t="s">
+      <c r="E56" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11374,7 +11322,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="60">
         <v>3039250</v>
       </c>
     </row>
@@ -11405,7 +11353,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="64">
+      <c r="E62" s="60">
         <v>34148341.620000005</v>
       </c>
     </row>
@@ -11416,7 +11364,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="64">
+      <c r="E63" s="60">
         <v>175279916.47</v>
       </c>
     </row>
@@ -11427,7 +11375,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11438,7 +11386,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -11447,7 +11395,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="64">
+      <c r="E66" s="60">
         <v>47392175.359999999</v>
       </c>
     </row>
@@ -11458,7 +11406,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="60">
         <v>130417584.38999999</v>
       </c>
     </row>
@@ -11469,7 +11417,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="64">
+      <c r="E68" s="60">
         <v>78481349.700000003</v>
       </c>
     </row>
@@ -11531,7 +11479,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -11540,7 +11488,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11551,7 +11499,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="60">
         <v>8015971.3899999997</v>
       </c>
     </row>
@@ -11571,7 +11519,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="62">
         <v>64526285.109999999</v>
       </c>
     </row>
@@ -11582,7 +11530,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11602,7 +11550,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="66">
+      <c r="E81" s="62">
         <v>7596856</v>
       </c>
     </row>
@@ -11613,7 +11561,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="67">
+      <c r="E82" s="63">
         <v>138079955.47999999</v>
       </c>
     </row>
@@ -11624,7 +11572,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -11664,7 +11612,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="64">
+      <c r="E87" s="60">
         <v>34849250.079999998</v>
       </c>
     </row>
@@ -11675,7 +11623,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="62">
+      <c r="E88" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11695,7 +11643,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="54">
         <v>0</v>
       </c>
     </row>
@@ -11706,7 +11654,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="64">
+      <c r="E91" s="60">
         <v>8619185.2400000002</v>
       </c>
     </row>
@@ -11717,7 +11665,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="58">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
@@ -11758,7 +11706,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="62">
+      <c r="E96" s="58">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -11802,7 +11750,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="62">
+      <c r="E100" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11838,7 +11786,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -11856,7 +11804,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="62">
+      <c r="E106" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11874,7 +11822,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="62">
+      <c r="E108" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11893,7 +11841,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="62">
+      <c r="E110" s="58">
         <v>0</v>
       </c>
     </row>
@@ -11936,7 +11884,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11948,54 +11896,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -12009,22 +11957,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12060,7 +12008,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="33">
-        <f>198059612.19+6108849.71</f>
         <v>204168461.90000001</v>
       </c>
     </row>
@@ -12094,7 +12041,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>443598833.12</v>
       </c>
     </row>
@@ -12136,7 +12082,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="44">
         <v>0</v>
       </c>
     </row>
@@ -12148,7 +12094,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>178882781.41000003</v>
       </c>
     </row>
@@ -12190,7 +12135,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -12210,7 +12155,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -12294,7 +12239,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -12327,7 +12272,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -12339,7 +12284,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1757022633.8800001</v>
       </c>
     </row>
@@ -12417,7 +12361,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -12563,7 +12507,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="44">
         <v>0</v>
       </c>
     </row>
@@ -12720,7 +12664,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -12740,7 +12684,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="44">
         <v>0</v>
       </c>
     </row>
@@ -12802,7 +12746,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="44">
         <v>0</v>
       </c>
     </row>
@@ -12813,7 +12757,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -12884,7 +12828,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>0</v>
       </c>
     </row>
@@ -12895,7 +12839,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="53">
+      <c r="E91" s="49">
         <v>0</v>
       </c>
     </row>
@@ -12906,7 +12850,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="44">
         <v>0</v>
       </c>
     </row>
@@ -12916,7 +12860,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1362323430.7399995</v>
       </c>
     </row>
@@ -12947,7 +12890,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="51">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -12973,7 +12916,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -12991,7 +12934,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -13027,7 +12970,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -13063,7 +13006,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="55">
+      <c r="E108" s="51">
         <v>0</v>
       </c>
     </row>
@@ -13082,7 +13025,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="57">
+      <c r="E110" s="53">
         <v>0</v>
       </c>
     </row>
@@ -13091,7 +13034,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -13103,7 +13045,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1362323430.7399995</v>
       </c>
     </row>
@@ -13137,54 +13078,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -13198,22 +13139,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -13248,7 +13189,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="64">
         <v>22738547.359999999</v>
       </c>
     </row>
@@ -13259,7 +13200,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="64">
         <v>47770532.199999996</v>
       </c>
     </row>
@@ -13270,7 +13211,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="64">
         <v>1335552.68</v>
       </c>
     </row>
@@ -13302,7 +13243,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="64">
         <v>12906220.67</v>
       </c>
     </row>
@@ -13313,7 +13254,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="64">
         <v>25918559.850000001</v>
       </c>
     </row>
@@ -13324,7 +13265,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="64">
         <v>124817.88</v>
       </c>
     </row>
@@ -13356,7 +13297,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="68">
+      <c r="E21" s="64">
         <v>493381701</v>
       </c>
     </row>
@@ -13367,7 +13308,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="68">
+      <c r="E22" s="64">
         <v>2224401.11</v>
       </c>
     </row>
@@ -13378,7 +13319,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -13398,7 +13339,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -13482,7 +13423,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -13515,7 +13456,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -13572,7 +13513,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="65">
         <v>103184067.59</v>
       </c>
     </row>
@@ -13583,7 +13524,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="65">
         <v>123477806.77</v>
       </c>
     </row>
@@ -13594,7 +13535,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="65">
         <v>12588895.359999999</v>
       </c>
     </row>
@@ -13605,7 +13546,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="69"/>
+      <c r="E45" s="65"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -13614,7 +13555,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="69">
+      <c r="E46" s="65">
         <v>9323103.3900000006</v>
       </c>
     </row>
@@ -13625,7 +13566,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="65">
         <v>11908345.23</v>
       </c>
     </row>
@@ -13636,7 +13577,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="65">
         <v>4835293.3099999996</v>
       </c>
     </row>
@@ -13647,7 +13588,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="69"/>
+      <c r="E49" s="65"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -13656,7 +13597,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="65">
         <v>16799376.380000003</v>
       </c>
     </row>
@@ -13667,7 +13608,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="65">
         <v>3178925.35</v>
       </c>
     </row>
@@ -13678,7 +13619,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="65">
         <v>112272</v>
       </c>
     </row>
@@ -13751,7 +13692,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="44">
         <v>0</v>
       </c>
     </row>
@@ -13782,7 +13723,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="69">
+      <c r="E62" s="65">
         <v>4617032.51</v>
       </c>
     </row>
@@ -13793,7 +13734,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="69">
+      <c r="E63" s="65">
         <v>23259088.25</v>
       </c>
     </row>
@@ -13824,7 +13765,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="69">
+      <c r="E66" s="65">
         <v>34581875.990000002</v>
       </c>
     </row>
@@ -13835,7 +13776,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="69">
+      <c r="E67" s="65">
         <v>73840776.930000007</v>
       </c>
     </row>
@@ -13846,7 +13787,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="65">
         <v>10661426.07</v>
       </c>
     </row>
@@ -13908,7 +13849,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -13917,7 +13858,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="69">
+      <c r="E75" s="65">
         <v>15570848.499999996</v>
       </c>
     </row>
@@ -13928,7 +13869,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="65">
         <v>40430017.800000004</v>
       </c>
     </row>
@@ -13948,7 +13889,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="69">
+      <c r="E78" s="65">
         <v>4947830</v>
       </c>
     </row>
@@ -13959,7 +13900,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="69">
+      <c r="E79" s="65">
         <v>25335884.699999999</v>
       </c>
     </row>
@@ -13990,7 +13931,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="69">
+      <c r="E82" s="65">
         <v>94192671.620000005</v>
       </c>
     </row>
@@ -14001,7 +13942,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -14072,7 +14013,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>0</v>
       </c>
     </row>
@@ -14083,7 +14024,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="69">
+      <c r="E91" s="65">
         <v>9632874</v>
       </c>
     </row>
@@ -14094,7 +14035,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="65">
         <v>664000</v>
       </c>
     </row>
@@ -14135,7 +14076,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="51">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -14161,7 +14102,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14179,7 +14120,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -14215,7 +14156,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -14251,7 +14192,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="66">
         <v>28987010.010000002</v>
       </c>
     </row>
@@ -14270,7 +14211,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="71">
+      <c r="E110" s="67">
         <v>35194081</v>
       </c>
     </row>
@@ -14313,7 +14254,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14325,54 +14266,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -14386,22 +14327,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -14436,7 +14377,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="68">
         <v>53208424.493000001</v>
       </c>
     </row>
@@ -14447,7 +14388,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="68">
         <v>104039222.73999999</v>
       </c>
     </row>
@@ -14458,7 +14399,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="68">
         <v>1031470.9</v>
       </c>
     </row>
@@ -14470,7 +14411,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>158279118.13299999</v>
       </c>
     </row>
@@ -14490,7 +14430,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="68">
         <v>26886743.079999998</v>
       </c>
     </row>
@@ -14501,7 +14441,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="68">
         <v>37940010.590000004</v>
       </c>
     </row>
@@ -14512,7 +14452,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="68">
         <v>9818655.6099999994</v>
       </c>
     </row>
@@ -14524,7 +14464,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>74645409.280000001</v>
       </c>
     </row>
@@ -14544,7 +14483,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="72">
+      <c r="E21" s="68">
         <v>634907634.46000004</v>
       </c>
     </row>
@@ -14555,7 +14494,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="73">
+      <c r="E22" s="69">
         <v>3123229.98</v>
       </c>
     </row>
@@ -14566,7 +14505,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -14575,7 +14514,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="69">
         <v>649265014.52999997</v>
       </c>
     </row>
@@ -14586,7 +14525,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -14670,7 +14609,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -14703,7 +14642,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="46">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
     </row>
@@ -14715,7 +14654,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1520220406.3829999</v>
       </c>
     </row>
@@ -14760,7 +14698,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="69">
         <v>242509735.68885201</v>
       </c>
     </row>
@@ -14771,7 +14709,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="69">
         <v>441642049.25476098</v>
       </c>
     </row>
@@ -14782,7 +14720,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="68">
         <v>85828554.319999993</v>
       </c>
     </row>
@@ -14793,7 +14731,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="72"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -14802,7 +14740,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="69">
         <v>79083194.620609403</v>
       </c>
     </row>
@@ -14813,7 +14751,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="68">
         <v>43182395.100000001</v>
       </c>
     </row>
@@ -14824,7 +14762,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="68">
         <v>38340296.119999997</v>
       </c>
     </row>
@@ -14835,7 +14773,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="72"/>
+      <c r="E49" s="68"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -14844,7 +14782,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="68">
         <v>62245306.526241198</v>
       </c>
     </row>
@@ -14855,7 +14793,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="68">
         <v>66473429.713536002</v>
       </c>
     </row>
@@ -14866,7 +14804,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="68">
         <v>5392064.4000000004</v>
       </c>
     </row>
@@ -14877,7 +14815,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="68"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -14886,7 +14824,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="68">
         <v>2032912.9692293401</v>
       </c>
     </row>
@@ -14897,7 +14835,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="68">
         <v>7957186</v>
       </c>
     </row>
@@ -14908,7 +14846,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="70">
         <v>148068</v>
       </c>
     </row>
@@ -14939,7 +14877,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="49">
         <v>0</v>
       </c>
     </row>
@@ -14970,7 +14908,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="72">
+      <c r="E62" s="68">
         <v>23206107.9501944</v>
       </c>
     </row>
@@ -14981,7 +14919,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="72">
+      <c r="E63" s="68">
         <v>59154305.5133968</v>
       </c>
     </row>
@@ -14992,7 +14930,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="68">
         <v>10332143.460000001</v>
       </c>
     </row>
@@ -15003,7 +14941,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="68"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -15012,7 +14950,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="72">
+      <c r="E66" s="68">
         <v>37342694.089627802</v>
       </c>
     </row>
@@ -15023,7 +14961,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="72">
+      <c r="E67" s="68">
         <v>55707704.888305999</v>
       </c>
     </row>
@@ -15034,7 +14972,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="72">
+      <c r="E68" s="68">
         <v>2891875.44</v>
       </c>
     </row>
@@ -15096,7 +15034,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -15105,7 +15043,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="69">
         <v>474172.54</v>
       </c>
     </row>
@@ -15116,7 +15054,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="73">
+      <c r="E76" s="69">
         <v>3486407.1</v>
       </c>
     </row>
@@ -15136,7 +15074,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="72">
+      <c r="E78" s="68">
         <v>21456885.84</v>
       </c>
     </row>
@@ -15147,7 +15085,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="72">
+      <c r="E79" s="68">
         <v>34917756.399999999</v>
       </c>
     </row>
@@ -15158,7 +15096,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="72"/>
+      <c r="E80" s="68"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -15167,7 +15105,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="72">
+      <c r="E81" s="68">
         <v>2775968.17</v>
       </c>
     </row>
@@ -15178,7 +15116,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="72">
+      <c r="E82" s="68">
         <v>61518920.909999996</v>
       </c>
     </row>
@@ -15189,7 +15127,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -15198,7 +15136,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="47">
         <v>0</v>
       </c>
     </row>
@@ -15229,8 +15167,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="72">
-        <f>2162808.9882454+14174588.75</f>
+      <c r="E87" s="68">
         <v>16337397.7382454</v>
       </c>
     </row>
@@ -15241,7 +15178,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="74">
+      <c r="E88" s="70">
         <v>599850</v>
       </c>
     </row>
@@ -15261,7 +15198,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>0</v>
       </c>
     </row>
@@ -15272,7 +15209,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="69">
+      <c r="E91" s="65">
         <v>0</v>
       </c>
     </row>
@@ -15283,7 +15220,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="65">
         <v>0</v>
       </c>
     </row>
@@ -15293,7 +15230,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1405037382.7529993</v>
       </c>
     </row>
@@ -15324,8 +15260,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="73">
-        <f>6890997.62+33843611.2</f>
+      <c r="E96" s="69">
         <v>40734608.82</v>
       </c>
       <c r="F96" s="10"/>
@@ -15351,7 +15286,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15369,7 +15304,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -15405,7 +15340,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -15422,8 +15357,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="72">
-        <f>94800+260500</f>
+      <c r="E106" s="68">
         <v>355300</v>
       </c>
     </row>
@@ -15441,8 +15375,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="72">
-        <f>2078300+642095.6</f>
+      <c r="E108" s="68">
         <v>2720395.6</v>
       </c>
     </row>
@@ -15461,8 +15394,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="72">
-        <f>47230453.78+32844357.14+1183280.89+17730695.51</f>
+      <c r="E110" s="68">
         <v>98988787.320000008</v>
       </c>
     </row>
@@ -15471,7 +15403,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>142799091.74000001</v>
       </c>
     </row>
@@ -15483,7 +15414,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1547836474.4929993</v>
       </c>
     </row>
@@ -15505,7 +15435,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A92" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F108" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15517,54 +15447,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15578,22 +15508,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -15628,8 +15558,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="75">
-        <f>55496919.28+72786911.18</f>
+      <c r="E11" s="71">
         <v>128283830.46000001</v>
       </c>
     </row>
@@ -15640,8 +15569,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="76">
-        <f>246752378.66-206761.37</f>
+      <c r="E12" s="72">
         <v>246545617.28999999</v>
       </c>
     </row>
@@ -15652,7 +15580,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="73">
         <v>10129576.34</v>
       </c>
     </row>
@@ -15664,7 +15592,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>384959024.08999997</v>
       </c>
     </row>
@@ -15684,7 +15611,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="72">
         <v>34076698.859999999</v>
       </c>
     </row>
@@ -15695,7 +15622,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="72">
         <v>25709437.829999998</v>
       </c>
     </row>
@@ -15706,8 +15633,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="76">
-        <f>193187.84+10013573.53</f>
+      <c r="E18" s="72">
         <v>10206761.369999999</v>
       </c>
     </row>
@@ -15719,7 +15645,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>69992898.060000002</v>
       </c>
     </row>
@@ -15739,7 +15664,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="76">
+      <c r="E21" s="72">
         <v>626103060</v>
       </c>
     </row>
@@ -15750,7 +15675,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="75">
+      <c r="E22" s="71">
         <v>5414260.29</v>
       </c>
     </row>
@@ -15761,7 +15686,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -15770,7 +15695,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="69">
         <v>0</v>
       </c>
     </row>
@@ -15781,7 +15706,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -15823,7 +15748,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="71">
         <v>4000000</v>
       </c>
     </row>
@@ -15834,7 +15759,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="71">
         <v>29242</v>
       </c>
     </row>
@@ -15865,7 +15790,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -15898,7 +15823,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="75">
+      <c r="E36" s="71">
         <v>124700000</v>
       </c>
     </row>
@@ -15910,7 +15835,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1215198484.4400001</v>
       </c>
     </row>
@@ -15955,8 +15879,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="76">
-        <f>117511319.13+102123238.86</f>
+      <c r="E42" s="72">
         <v>219634557.99000001</v>
       </c>
     </row>
@@ -15967,8 +15890,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="76">
-        <f>355817944.84+17932373.02</f>
+      <c r="E43" s="72">
         <v>373750317.85999995</v>
       </c>
     </row>
@@ -15979,8 +15901,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="76">
-        <f>35902499.8+124700000</f>
+      <c r="E44" s="72">
         <v>160602499.80000001</v>
       </c>
     </row>
@@ -15991,7 +15912,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="72"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -16000,7 +15921,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="72">
         <v>2320882.66</v>
       </c>
     </row>
@@ -16011,7 +15932,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="72">
         <v>49555227.109999999</v>
       </c>
     </row>
@@ -16022,7 +15943,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="72">
         <v>15679269.43</v>
       </c>
     </row>
@@ -16033,7 +15954,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="78"/>
+      <c r="E49" s="74"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -16042,7 +15963,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="72">
         <v>52091718.800000004</v>
       </c>
     </row>
@@ -16053,7 +15974,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="72">
         <v>42854111.140000001</v>
       </c>
     </row>
@@ -16064,7 +15985,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="72">
         <v>1204930</v>
       </c>
     </row>
@@ -16075,7 +15996,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="68"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -16084,7 +16005,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16095,7 +16016,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16106,7 +16027,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="70">
         <v>0</v>
       </c>
     </row>
@@ -16137,7 +16058,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="49">
         <v>0</v>
       </c>
     </row>
@@ -16168,7 +16089,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="72">
+      <c r="E62" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16179,7 +16100,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="72">
+      <c r="E63" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16190,7 +16111,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16201,7 +16122,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="68"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -16210,7 +16131,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="72">
         <v>85708256.780000001</v>
       </c>
     </row>
@@ -16221,7 +16142,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="72">
         <v>29685149.880000003</v>
       </c>
     </row>
@@ -16232,7 +16153,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="72">
         <v>21750341.75</v>
       </c>
     </row>
@@ -16294,7 +16215,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -16303,7 +16224,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="69">
         <v>0</v>
       </c>
     </row>
@@ -16314,7 +16235,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="73">
+      <c r="E76" s="69">
         <v>0</v>
       </c>
     </row>
@@ -16334,7 +16255,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="72">
+      <c r="E78" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16345,7 +16266,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="72">
+      <c r="E79" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16356,7 +16277,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="72"/>
+      <c r="E80" s="68"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -16365,7 +16286,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="72">
+      <c r="E81" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16376,8 +16297,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="76">
-        <f>246811052.21-124700000</f>
+      <c r="E82" s="72">
         <v>122111052.21000001</v>
       </c>
     </row>
@@ -16388,7 +16308,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -16397,7 +16317,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16428,7 +16348,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="72">
+      <c r="E87" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16439,7 +16359,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="74">
+      <c r="E88" s="70">
         <v>0</v>
       </c>
     </row>
@@ -16459,7 +16379,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>0</v>
       </c>
     </row>
@@ -16470,7 +16390,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="69">
+      <c r="E91" s="65">
         <v>0</v>
       </c>
     </row>
@@ -16481,7 +16401,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="76">
+      <c r="E92" s="72">
         <v>1601320</v>
       </c>
     </row>
@@ -16491,7 +16411,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1178549635.4099996</v>
       </c>
     </row>
@@ -16522,7 +16441,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="73">
+      <c r="E96" s="69">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -16548,7 +16467,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16566,7 +16485,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -16602,7 +16521,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -16612,7 +16531,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="72"/>
+      <c r="E105" s="68"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -16638,7 +16557,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="72">
+      <c r="E108" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16657,7 +16576,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="72">
+      <c r="E110" s="68">
         <v>0</v>
       </c>
     </row>
@@ -16666,7 +16585,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -16678,7 +16596,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1178549635.4099996</v>
       </c>
     </row>
@@ -16700,7 +16617,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="D94" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F107" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16712,54 +16629,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -16773,22 +16690,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -16823,7 +16740,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="75">
         <v>82363000</v>
       </c>
     </row>
@@ -16834,7 +16751,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="75">
         <v>477745000</v>
       </c>
     </row>
@@ -16845,8 +16762,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="79">
-        <f>792000+6097000</f>
+      <c r="E13" s="75">
         <v>6889000</v>
       </c>
     </row>
@@ -16858,7 +16774,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>566997000</v>
       </c>
     </row>
@@ -16878,7 +16793,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="75">
         <v>70329000</v>
       </c>
     </row>
@@ -16889,7 +16804,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="75">
         <v>23074000</v>
       </c>
     </row>
@@ -16900,7 +16815,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="75">
         <v>9006000</v>
       </c>
     </row>
@@ -16912,7 +16827,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>102409000</v>
       </c>
     </row>
@@ -16932,7 +16846,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="79">
+      <c r="E21" s="75">
         <v>535410000</v>
       </c>
     </row>
@@ -16943,7 +16857,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="79">
+      <c r="E22" s="75">
         <v>3800000</v>
       </c>
     </row>
@@ -16954,7 +16868,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -16963,7 +16877,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="75">
         <v>7471000</v>
       </c>
     </row>
@@ -16974,7 +16888,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -17015,7 +16929,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="71">
         <v>100000</v>
       </c>
     </row>
@@ -17057,7 +16971,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -17090,7 +17004,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="75">
+      <c r="E36" s="71">
         <v>0</v>
       </c>
     </row>
@@ -17102,7 +17016,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1225314000</v>
       </c>
     </row>
@@ -17147,7 +17060,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="79">
+      <c r="E42" s="75">
         <v>6833000</v>
       </c>
     </row>
@@ -17158,7 +17071,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="79">
+      <c r="E43" s="75">
         <v>323230000</v>
       </c>
     </row>
@@ -17169,7 +17082,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="79">
+      <c r="E44" s="75">
         <v>94859000</v>
       </c>
     </row>
@@ -17180,7 +17093,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="72"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -17189,7 +17102,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17200,7 +17113,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17211,7 +17124,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17222,7 +17135,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="78"/>
+      <c r="E49" s="74"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -17231,7 +17144,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="79">
+      <c r="E50" s="75">
         <v>29455000</v>
       </c>
     </row>
@@ -17242,7 +17155,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="79">
+      <c r="E51" s="75">
         <v>49759000</v>
       </c>
     </row>
@@ -17253,7 +17166,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="76">
         <v>740000</v>
       </c>
     </row>
@@ -17264,7 +17177,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="68"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -17273,7 +17186,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17284,7 +17197,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17295,7 +17208,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="70">
         <v>0</v>
       </c>
     </row>
@@ -17326,7 +17239,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E59" s="76">
         <v>12103000</v>
       </c>
     </row>
@@ -17357,7 +17270,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="79">
+      <c r="E62" s="75">
         <v>13150000</v>
       </c>
     </row>
@@ -17368,7 +17281,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="79">
+      <c r="E63" s="75">
         <v>50698000</v>
       </c>
     </row>
@@ -17379,7 +17292,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="76">
         <v>592000</v>
       </c>
     </row>
@@ -17390,7 +17303,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="68"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -17399,7 +17312,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="79">
+      <c r="E66" s="75">
         <v>18962000</v>
       </c>
     </row>
@@ -17410,7 +17323,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="79">
+      <c r="E67" s="75">
         <v>77174000</v>
       </c>
     </row>
@@ -17421,7 +17334,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="80">
+      <c r="E68" s="76">
         <v>417000</v>
       </c>
     </row>
@@ -17441,7 +17354,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="79">
+      <c r="E70" s="75">
         <v>3589000</v>
       </c>
     </row>
@@ -17452,7 +17365,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="79">
+      <c r="E71" s="75">
         <v>34427000</v>
       </c>
     </row>
@@ -17463,7 +17376,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="80">
+      <c r="E72" s="76">
         <v>6645000</v>
       </c>
     </row>
@@ -17483,7 +17396,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -17492,7 +17405,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="69">
         <v>0</v>
       </c>
     </row>
@@ -17503,7 +17416,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="73">
+      <c r="E76" s="69">
         <v>0</v>
       </c>
     </row>
@@ -17523,7 +17436,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="72">
+      <c r="E78" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17534,7 +17447,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="72">
+      <c r="E79" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17545,7 +17458,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="72"/>
+      <c r="E80" s="68"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -17554,7 +17467,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="72">
+      <c r="E81" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17565,7 +17478,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="77">
         <v>19275000</v>
       </c>
     </row>
@@ -17576,7 +17489,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="54"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -17585,7 +17498,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="47">
         <v>0</v>
       </c>
     </row>
@@ -17616,7 +17529,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="72">
+      <c r="E87" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17627,7 +17540,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="74">
+      <c r="E88" s="70">
         <v>0</v>
       </c>
     </row>
@@ -17647,7 +17560,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="49">
         <v>0</v>
       </c>
     </row>
@@ -17658,7 +17571,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="69">
+      <c r="E91" s="65">
         <v>0</v>
       </c>
     </row>
@@ -17669,7 +17582,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="76">
+      <c r="E92" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17679,7 +17592,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>741908000</v>
       </c>
     </row>
@@ -17710,7 +17622,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="73">
+      <c r="E96" s="69">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -17736,7 +17648,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17754,7 +17666,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="51">
         <v>0</v>
       </c>
     </row>
@@ -17790,7 +17702,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="56">
+      <c r="E104" s="52">
         <v>0</v>
       </c>
     </row>
@@ -17800,7 +17712,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="72"/>
+      <c r="E105" s="68"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -17826,7 +17738,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="72">
+      <c r="E108" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17845,7 +17757,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="72">
+      <c r="E110" s="68">
         <v>0</v>
       </c>
     </row>
@@ -17854,7 +17766,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -17866,7 +17777,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>741908000</v>
       </c>
     </row>
